--- a/17.Aggregate Counts for NNDSS/Documents/Worksheet_2020_Aggregate_COVID-19_Data.xlsx
+++ b/17.Aggregate Counts for NNDSS/Documents/Worksheet_2020_Aggregate_COVID-19_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10410" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10410" windowHeight="10425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -2175,7 +2175,7 @@
   </sheetPr>
   <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:B12"/>
     </sheetView>
   </sheetViews>
@@ -2383,10 +2383,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,8 +2484,8 @@
       <c r="O3" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2577,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,6 +2589,7 @@
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3509,21 +3513,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C1EB0047B917F44A9DD22EA00C4953F7" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66ee7eecf51e07370f348c26ef7cbdb9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a400e991-e328-4909-a20b-586a3e95021a" xmlns:ns3="7cba21d4-7744-440f-8d0e-c8a210e7da3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09d45ed7f8a2aba8e86ceb88db805f0b" ns2:_="" ns3:_="">
     <xsd:import namespace="a400e991-e328-4909-a20b-586a3e95021a"/>
@@ -3700,32 +3689,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B49EC5E3-F88D-40BD-8D9E-98EDA1AD3A9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a400e991-e328-4909-a20b-586a3e95021a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7cba21d4-7744-440f-8d0e-c8a210e7da3e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A85897-AEA2-4CD1-86CE-A09F51323220}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483CE18E-96D6-4DCF-A1BE-ADD694C3BBBA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3742,4 +3721,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A85897-AEA2-4CD1-86CE-A09F51323220}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B49EC5E3-F88D-40BD-8D9E-98EDA1AD3A9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a400e991-e328-4909-a20b-586a3e95021a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7cba21d4-7744-440f-8d0e-c8a210e7da3e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/17.Aggregate Counts for NNDSS/Documents/Worksheet_2020_Aggregate_COVID-19_Data.xlsx
+++ b/17.Aggregate Counts for NNDSS/Documents/Worksheet_2020_Aggregate_COVID-19_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10410" windowHeight="10425" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10410" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Race and Ethnicity " sheetId="15" r:id="rId6"/>
     <sheet name="Pick List" sheetId="4" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2175,8 +2175,8 @@
   </sheetPr>
   <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,7 +2580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
@@ -3513,6 +3513,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C1EB0047B917F44A9DD22EA00C4953F7" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66ee7eecf51e07370f348c26ef7cbdb9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a400e991-e328-4909-a20b-586a3e95021a" xmlns:ns3="7cba21d4-7744-440f-8d0e-c8a210e7da3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09d45ed7f8a2aba8e86ceb88db805f0b" ns2:_="" ns3:_="">
     <xsd:import namespace="a400e991-e328-4909-a20b-586a3e95021a"/>
@@ -3689,22 +3704,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B49EC5E3-F88D-40BD-8D9E-98EDA1AD3A9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a400e991-e328-4909-a20b-586a3e95021a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7cba21d4-7744-440f-8d0e-c8a210e7da3e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A85897-AEA2-4CD1-86CE-A09F51323220}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483CE18E-96D6-4DCF-A1BE-ADD694C3BBBA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3721,29 +3746,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A85897-AEA2-4CD1-86CE-A09F51323220}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B49EC5E3-F88D-40BD-8D9E-98EDA1AD3A9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a400e991-e328-4909-a20b-586a3e95021a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7cba21d4-7744-440f-8d0e-c8a210e7da3e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/17.Aggregate Counts for NNDSS/Documents/Worksheet_2020_Aggregate_COVID-19_Data.xlsx
+++ b/17.Aggregate Counts for NNDSS/Documents/Worksheet_2020_Aggregate_COVID-19_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10410" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10410" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="181">
   <si>
     <t>Instructions for Preparing Aggregate Data in the Template</t>
   </si>
@@ -1277,6 +1277,12 @@
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
+  </si>
+  <si>
+    <t>chk</t>
+  </si>
+  <si>
+    <t>Chk</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1733,11 +1739,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1767,7 +1782,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1801,17 +1815,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1856,6 +1864,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2175,7 +2196,7 @@
   </sheetPr>
   <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2188,46 +2209,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>44463</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:4" ht="104.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" s="7" customFormat="1" ht="94.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2235,13 +2256,13 @@
       <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2249,13 +2270,13 @@
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2263,13 +2284,13 @@
       <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2277,13 +2298,13 @@
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2291,21 +2312,21 @@
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="7" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
@@ -2339,10 +2360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,29 +2372,44 @@
     <col min="2" max="2" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="43">
+        <v>335437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="43">
+        <v>18523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="43">
+        <v>353960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>B2+B3</f>
+        <v>353960</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2386,10 +2422,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O3"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,9 +2434,10 @@
     <col min="2" max="13" width="10.85546875" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
         <v>20</v>
@@ -2444,44 +2481,111 @@
       <c r="O1" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="43">
+        <v>0</v>
+      </c>
+      <c r="C2" s="43">
+        <v>0</v>
+      </c>
+      <c r="D2" s="43">
+        <v>2047</v>
+      </c>
+      <c r="E2" s="43">
+        <v>10105</v>
+      </c>
+      <c r="F2" s="43">
+        <v>12101</v>
+      </c>
+      <c r="G2" s="43">
+        <v>5594</v>
+      </c>
+      <c r="H2" s="43">
+        <v>11915</v>
+      </c>
+      <c r="I2" s="43">
+        <v>12221</v>
+      </c>
+      <c r="J2" s="43">
+        <v>11155</v>
+      </c>
+      <c r="K2" s="43">
+        <v>40223</v>
+      </c>
+      <c r="L2" s="43">
+        <v>123769</v>
+      </c>
+      <c r="M2" s="43">
+        <v>106307</v>
+      </c>
+      <c r="N2" s="43">
+        <v>0</v>
+      </c>
+      <c r="O2" s="43">
+        <v>335437</v>
+      </c>
+      <c r="Q2" s="45">
+        <f>SUM(B2:N2)</f>
+        <v>335437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="B3" s="43">
+        <v>0</v>
+      </c>
+      <c r="C3" s="43">
+        <v>0</v>
+      </c>
+      <c r="D3" s="43">
+        <v>228</v>
+      </c>
+      <c r="E3" s="43">
+        <v>1247</v>
+      </c>
+      <c r="F3" s="43">
+        <v>1047</v>
+      </c>
+      <c r="G3" s="43">
+        <v>443</v>
+      </c>
+      <c r="H3" s="43">
+        <v>451</v>
+      </c>
+      <c r="I3" s="43">
+        <v>884</v>
+      </c>
+      <c r="J3" s="43">
+        <v>1234</v>
+      </c>
+      <c r="K3" s="43">
+        <v>2898</v>
+      </c>
+      <c r="L3" s="43">
+        <v>4377</v>
+      </c>
+      <c r="M3" s="43">
+        <v>5714</v>
+      </c>
+      <c r="N3" s="43">
+        <v>0</v>
+      </c>
+      <c r="O3" s="43">
+        <v>18523</v>
+      </c>
+      <c r="Q3" s="45">
+        <f>SUM(B3:N3)</f>
+        <v>18523</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2494,10 +2598,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,9 +2614,10 @@
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="9" t="s">
         <v>35</v>
@@ -2541,34 +2646,81 @@
       <c r="J1" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="43">
+        <v>1326</v>
+      </c>
+      <c r="C2" s="43">
+        <v>4272</v>
+      </c>
+      <c r="D2" s="43">
+        <v>18043</v>
+      </c>
+      <c r="E2" s="43">
+        <v>61489</v>
+      </c>
+      <c r="F2" s="43">
+        <v>97676</v>
+      </c>
+      <c r="G2" s="43">
+        <v>113456</v>
+      </c>
+      <c r="H2" s="43">
+        <v>39154</v>
+      </c>
+      <c r="I2" s="43">
+        <v>21</v>
+      </c>
+      <c r="J2" s="43">
+        <v>335437</v>
+      </c>
+      <c r="L2" s="45">
+        <f>SUM(B2:I2)</f>
+        <v>335437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="B3" s="43">
+        <v>125</v>
+      </c>
+      <c r="C3" s="43">
+        <v>458</v>
+      </c>
+      <c r="D3" s="43">
+        <v>1266</v>
+      </c>
+      <c r="E3" s="43">
+        <v>3084</v>
+      </c>
+      <c r="F3" s="43">
+        <v>5261</v>
+      </c>
+      <c r="G3" s="43">
+        <v>5996</v>
+      </c>
+      <c r="H3" s="43">
+        <v>2303</v>
+      </c>
+      <c r="I3" s="43">
+        <v>30</v>
+      </c>
+      <c r="J3" s="43">
+        <v>18523</v>
+      </c>
+      <c r="L3" s="45">
+        <f>SUM(B3:I3)</f>
+        <v>18523</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2578,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,7 +2744,7 @@
     <col min="6" max="6" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="9" t="s">
         <v>39</v>
@@ -2606,24 +2758,51 @@
       <c r="E1" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6">
+        <v>137255</v>
+      </c>
+      <c r="C2" s="6">
+        <v>163518</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4664</v>
+      </c>
+      <c r="E2" s="8">
+        <v>335437</v>
+      </c>
+      <c r="G2">
+        <f>SUM(B2:D2)</f>
+        <v>305437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="6">
+        <v>9732</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8649</v>
+      </c>
+      <c r="D3" s="6">
+        <v>142</v>
+      </c>
+      <c r="E3" s="8">
+        <v>185232</v>
+      </c>
+      <c r="G3">
+        <f>SUM(B3:D3)</f>
+        <v>18523</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2639,7 +2818,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2660,188 +2839,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30"/>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="26"/>
+      <c r="B3" s="46">
+        <v>541</v>
+      </c>
+      <c r="C3" s="47">
+        <v>1606</v>
+      </c>
+      <c r="D3" s="47">
+        <v>33036</v>
+      </c>
+      <c r="E3" s="47">
+        <v>132</v>
+      </c>
+      <c r="F3" s="47">
+        <v>812</v>
+      </c>
+      <c r="G3" s="47">
+        <v>15886</v>
+      </c>
+      <c r="H3" s="48">
+        <v>33594</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+      <c r="B4" s="49">
+        <v>25</v>
+      </c>
+      <c r="C4" s="50">
+        <v>27</v>
+      </c>
+      <c r="D4" s="50">
+        <v>1651</v>
+      </c>
+      <c r="E4" s="50">
+        <v>3</v>
+      </c>
+      <c r="F4" s="50">
+        <v>12</v>
+      </c>
+      <c r="G4" s="50">
+        <v>791</v>
+      </c>
+      <c r="H4" s="51">
+        <v>932</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:9" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="26"/>
+      <c r="B8" s="46">
+        <v>1454</v>
+      </c>
+      <c r="C8" s="47">
+        <v>8686</v>
+      </c>
+      <c r="D8" s="47">
+        <v>110237</v>
+      </c>
+      <c r="E8" s="47">
+        <v>4314</v>
+      </c>
+      <c r="F8" s="47">
+        <v>631</v>
+      </c>
+      <c r="G8" s="47">
+        <v>2758</v>
+      </c>
+      <c r="H8" s="48">
+        <v>112200</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
+      <c r="B9" s="49">
+        <v>77</v>
+      </c>
+      <c r="C9" s="50">
+        <v>329</v>
+      </c>
+      <c r="D9" s="50">
+        <v>8084</v>
+      </c>
+      <c r="E9" s="50">
+        <v>228</v>
+      </c>
+      <c r="F9" s="50">
+        <v>38</v>
+      </c>
+      <c r="G9" s="50">
+        <v>161</v>
+      </c>
+      <c r="H9" s="51">
+        <v>5897</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="30"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="32"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="52">
+        <v>335437</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="33"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="53">
+        <v>18523</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3513,21 +3752,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C1EB0047B917F44A9DD22EA00C4953F7" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66ee7eecf51e07370f348c26ef7cbdb9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a400e991-e328-4909-a20b-586a3e95021a" xmlns:ns3="7cba21d4-7744-440f-8d0e-c8a210e7da3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09d45ed7f8a2aba8e86ceb88db805f0b" ns2:_="" ns3:_="">
     <xsd:import namespace="a400e991-e328-4909-a20b-586a3e95021a"/>
@@ -3704,32 +3928,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B49EC5E3-F88D-40BD-8D9E-98EDA1AD3A9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a400e991-e328-4909-a20b-586a3e95021a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7cba21d4-7744-440f-8d0e-c8a210e7da3e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A85897-AEA2-4CD1-86CE-A09F51323220}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483CE18E-96D6-4DCF-A1BE-ADD694C3BBBA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3746,4 +3960,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A85897-AEA2-4CD1-86CE-A09F51323220}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B49EC5E3-F88D-40BD-8D9E-98EDA1AD3A9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a400e991-e328-4909-a20b-586a3e95021a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7cba21d4-7744-440f-8d0e-c8a210e7da3e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>